--- a/OfficeManager.API/Resources/EmployeeDetails.xlsx
+++ b/OfficeManager.API/Resources/EmployeeDetails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShubhamR\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shubham_Workplace\OfficeManagerCommunity\OfficeManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E0DEA7-1352-44C2-9D20-B447B8206438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22951E7F-EA3E-4A13-A324-B4173C39041C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jul 2022" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="242">
   <si>
     <t>Atharva System</t>
   </si>
@@ -752,6 +752,12 @@
   </si>
   <si>
     <t>This report is generated by Keka HR and Payroll Software</t>
+  </si>
+  <si>
+    <t>Test Import</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3005,6 +3011,26 @@
         <v>36910</v>
       </c>
     </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s">
+        <v>240</v>
+      </c>
+      <c r="C95" s="4">
+        <v>44753</v>
+      </c>
+      <c r="D95" t="s">
+        <v>241</v>
+      </c>
+      <c r="E95" t="s">
+        <v>241</v>
+      </c>
+      <c r="F95" s="4">
+        <v>35800</v>
+      </c>
+    </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>238</v>
